--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_388__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_388__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5429,7 +5429,7 @@
                   <c:v>58.09325790405273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.06718254089355</c:v>
+                  <c:v>29.06718063354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>55.42490768432617</c:v>
@@ -5447,7 +5447,7 @@
                   <c:v>97.10627746582031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.1219367980957</c:v>
+                  <c:v>49.12193298339844</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.25579833984375</c:v>
@@ -5456,7 +5456,7 @@
                   <c:v>90.61839294433594</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.8037109375</c:v>
+                  <c:v>78.80372619628906</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>42.69380569458008</c:v>
@@ -5468,7 +5468,7 @@
                   <c:v>71.55180358886719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.91067314147949</c:v>
+                  <c:v>13.91067123413086</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.27400207519531</c:v>
@@ -5492,7 +5492,7 @@
                   <c:v>97.15408325195312</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.3441162109375</c:v>
+                  <c:v>93.34410095214844</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>88.88420104980469</c:v>
@@ -5501,13 +5501,13 @@
                   <c:v>97.32008361816406</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69.44990539550781</c:v>
+                  <c:v>69.44989776611328</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>97.70901489257812</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.55433654785156</c:v>
+                  <c:v>53.55434036254883</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>78.76171875</c:v>
@@ -5528,7 +5528,7 @@
                   <c:v>90.12994384765625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.73085021972656</c:v>
+                  <c:v>96.73086547851562</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>60.4359245300293</c:v>
@@ -5540,7 +5540,7 @@
                   <c:v>38.87529754638672</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.69631958007812</c:v>
+                  <c:v>86.69630432128906</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>85.17832946777344</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>80.39765930175781</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.21132659912109</c:v>
+                  <c:v>51.21133041381836</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.38426208496094</c:v>
@@ -5597,7 +5597,7 @@
                   <c:v>49.37571716308594</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86.23895263671875</c:v>
+                  <c:v>86.23896789550781</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>97.54039001464844</c:v>
@@ -5624,7 +5624,7 @@
                   <c:v>63.07491302490234</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.45758056640625</c:v>
+                  <c:v>82.45756530761719</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>66.43215942382812</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>98.06100463867188</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.58407592773438</c:v>
+                  <c:v>97.58409118652344</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>28.42334175109863</c:v>
@@ -5648,7 +5648,7 @@
                   <c:v>87.41607666015625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>61.16252136230469</c:v>
+                  <c:v>61.16251373291016</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>82.0194091796875</c:v>
@@ -5669,13 +5669,13 @@
                   <c:v>85.084228515625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>63.46440124511719</c:v>
+                  <c:v>63.46440887451172</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>89.97950744628906</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>96.42991638183594</c:v>
+                  <c:v>96.429931640625</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>80.37490844726562</c:v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>29.06718254089355</v>
+        <v>29.06718063354492</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>49.1219367980957</v>
+        <v>49.12193298339844</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>78.8037109375</v>
+        <v>78.80372619628906</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>13.91067314147949</v>
+        <v>13.91067123413086</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>94.6755</v>
       </c>
       <c r="F27">
-        <v>93.3441162109375</v>
+        <v>93.34410095214844</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>69.44990539550781</v>
+        <v>69.44989776611328</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.55433654785156</v>
+        <v>53.55434036254883</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.73085021972656</v>
+        <v>96.73086547851562</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.69631958007812</v>
+        <v>86.69630432128906</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.21132659912109</v>
+        <v>51.21133041381836</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>86.23895263671875</v>
+        <v>86.23896789550781</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.45758056640625</v>
+        <v>82.45756530761719</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.58407592773438</v>
+        <v>97.58409118652344</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>61.16252136230469</v>
+        <v>61.16251373291016</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>63.46440124511719</v>
+        <v>63.46440887451172</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>95.86490000000001</v>
       </c>
       <c r="F88">
-        <v>96.42991638183594</v>
+        <v>96.429931640625</v>
       </c>
     </row>
     <row r="89" spans="1:6">
